--- a/Document/Testing.xlsx
+++ b/Document/Testing.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Success</t>
   </si>
@@ -42,6 +42,27 @@
   </si>
   <si>
     <t>full</t>
+  </si>
+  <si>
+    <t>test name</t>
+  </si>
+  <si>
+    <t>Vertical v1</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reliability = </t>
+  </si>
+  <si>
+    <t>vertical v2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reliabiliy = </t>
+  </si>
+  <si>
+    <t>horizontal v1</t>
   </si>
 </sst>
 </file>
@@ -359,41 +380,345 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F2"/>
+  <dimension ref="A2:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D1" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
-        <v>1</v>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>35</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4">
+        <f>(C8/(C8+E8))*100</f>
+        <v>75.939849624060145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>28</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <f>SUM(C4:C7)</f>
+        <v>101</v>
+      </c>
+      <c r="E8">
+        <f>SUM(E4:E7)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>32</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>28</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <f>SUM(C10:C13)</f>
+        <v>107</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:F14" si="0">SUM(D10:D13)</f>
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14">
+        <f>(C14/SUM(C14:F14))*100</f>
+        <v>86.290322580645167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>18</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>16</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>18</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <f>SUM(C16:C21)</f>
+        <v>104</v>
+      </c>
+      <c r="D22">
+        <f>SUM(D16:D21)</f>
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <f>SUM(E16:E21)</f>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f>SUM(F16:F21)</f>
+        <v>2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22">
+        <f>(C22/SUM(C22:F22))*100</f>
+        <v>96.296296296296291</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Testing.xlsx
+++ b/Document/Testing.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17925" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="7035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,24 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="24">
   <si>
     <t>Success</t>
   </si>
   <si>
-    <t>Dispense Error</t>
-  </si>
-  <si>
     <t xml:space="preserve">round </t>
-  </si>
-  <si>
-    <t>Loading error</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>full</t>
   </si>
   <si>
     <t>test name</t>
@@ -63,6 +52,51 @@
   </si>
   <si>
     <t>horizontal v1</t>
+  </si>
+  <si>
+    <t>dip 8</t>
+  </si>
+  <si>
+    <t>dip 8 holder</t>
+  </si>
+  <si>
+    <t>Load Error</t>
+  </si>
+  <si>
+    <t>Release Error</t>
+  </si>
+  <si>
+    <t>Half Load Error</t>
+  </si>
+  <si>
+    <t>Full Load Error</t>
+  </si>
+  <si>
+    <t>Vertical Roller V1</t>
+  </si>
+  <si>
+    <t>Vertical Roller V2</t>
+  </si>
+  <si>
+    <t>Horizontal Roller V1</t>
+  </si>
+  <si>
+    <t>DIP 8</t>
+  </si>
+  <si>
+    <t>DIP 14/16</t>
+  </si>
+  <si>
+    <t>DIP 20</t>
+  </si>
+  <si>
+    <t>DIP 8 Holder</t>
+  </si>
+  <si>
+    <t>DIP 14/16 Holder</t>
+  </si>
+  <si>
+    <t>DIP 20 Holder</t>
   </si>
 </sst>
 </file>
@@ -115,6 +149,2177 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ZA"/>
+              <a:t>Dipsencary Test Results</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-ZA" baseline="0"/>
+              <a:t> of Prototypes</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-ZA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Success</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Vertical Roller V1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Vertical Roller V2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Horizontal Roller V1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Half Load Error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Vertical Roller V1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Vertical Roller V2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Horizontal Roller V1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Full Load Error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Vertical Roller V1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Vertical Roller V2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Horizontal Roller V1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$B$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Release Error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Vertical Roller V1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Vertical Roller V2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Horizontal Roller V1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$B$5:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1565395248"/>
+        <c:axId val="1975799424"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1565395248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1975799424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1975799424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.70000000000000007"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1565395248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ZA"/>
+              <a:t>Final</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-ZA" baseline="0"/>
+              <a:t> Build Stress Test Results</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-ZA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Success</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$A$23:$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>DIP 8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DIP 14/16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DIP 20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DIP 8 Holder</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DIP 14/16 Holder</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DIP 20 Holder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$B$23:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$C$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Load Error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$A$23:$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>DIP 8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DIP 14/16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DIP 20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DIP 8 Holder</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DIP 14/16 Holder</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DIP 20 Holder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$C$23:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$D$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Release Error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$A$23:$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>DIP 8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DIP 14/16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DIP 20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DIP 8 Holder</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DIP 14/16 Holder</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DIP 20 Holder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$D$23:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="73434752"/>
+        <c:axId val="73427680"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="73434752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="73427680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="73427680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.9"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="73434752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>61911</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>385762</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>128586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,10 +2585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I22"/>
+  <dimension ref="A3:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="L65" sqref="L65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,40 +2596,41 @@
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="4" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D2" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -436,14 +2642,17 @@
         <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I4">
         <f>(C8/(C8+E8))*100</f>
         <v>75.939849624060145</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
@@ -453,8 +2662,11 @@
       <c r="E5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3</v>
       </c>
@@ -464,8 +2676,11 @@
       <c r="E6">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4</v>
       </c>
@@ -476,22 +2691,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <f>SUM(C4:C7)</f>
         <v>101</v>
       </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
       <c r="E8">
         <f>SUM(E4:E7)</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -509,7 +2730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>2</v>
       </c>
@@ -526,7 +2747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>3</v>
       </c>
@@ -543,7 +2764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>4</v>
       </c>
@@ -560,9 +2781,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C14">
         <f>SUM(C10:C13)</f>
@@ -581,16 +2802,16 @@
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I14">
         <f>(C14/SUM(C14:F14))*100</f>
         <v>86.290322580645167</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -608,7 +2829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>2</v>
       </c>
@@ -625,7 +2846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>3</v>
       </c>
@@ -642,7 +2863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>4</v>
       </c>
@@ -659,7 +2880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>5</v>
       </c>
@@ -676,7 +2897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>6</v>
       </c>
@@ -693,9 +2914,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C22">
         <f>SUM(C16:C21)</f>
@@ -714,14 +2935,1528 @@
         <v>2</v>
       </c>
       <c r="H22" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I22">
         <f>(C22/SUM(C22:F22))*100</f>
         <v>96.296296296296291</v>
       </c>
     </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" t="s">
+        <v>1</v>
+      </c>
+      <c r="O24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P24" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>10</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="M25" t="s">
+        <v>9</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>10</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>10</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>2</v>
+      </c>
+      <c r="O26">
+        <v>10</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <v>10</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
+      <c r="O27">
+        <v>10</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>4</v>
+      </c>
+      <c r="I28">
+        <v>10</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>4</v>
+      </c>
+      <c r="O28">
+        <v>10</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>5</v>
+      </c>
+      <c r="I29">
+        <v>10</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>5</v>
+      </c>
+      <c r="O29">
+        <v>10</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>6</v>
+      </c>
+      <c r="I30">
+        <v>10</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>6</v>
+      </c>
+      <c r="O30">
+        <v>9</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>7</v>
+      </c>
+      <c r="I31">
+        <v>10</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>7</v>
+      </c>
+      <c r="O31">
+        <v>10</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>8</v>
+      </c>
+      <c r="I32">
+        <v>10</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>8</v>
+      </c>
+      <c r="O32">
+        <v>10</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>9</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>9</v>
+      </c>
+      <c r="I33">
+        <v>10</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>9</v>
+      </c>
+      <c r="O33">
+        <v>10</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>10</v>
+      </c>
+      <c r="I34">
+        <v>10</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>10</v>
+      </c>
+      <c r="O34">
+        <v>10</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>11</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>11</v>
+      </c>
+      <c r="I35">
+        <v>10</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>11</v>
+      </c>
+      <c r="O35">
+        <v>10</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>12</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>12</v>
+      </c>
+      <c r="I36">
+        <v>10</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>12</v>
+      </c>
+      <c r="O36">
+        <v>10</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>13</v>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>13</v>
+      </c>
+      <c r="I37">
+        <v>10</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>13</v>
+      </c>
+      <c r="O37">
+        <v>10</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>14</v>
+      </c>
+      <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>14</v>
+      </c>
+      <c r="I38">
+        <v>10</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>14</v>
+      </c>
+      <c r="O38">
+        <v>9</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>15</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>15</v>
+      </c>
+      <c r="I39">
+        <v>10</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>15</v>
+      </c>
+      <c r="O39">
+        <v>10</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>16</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>16</v>
+      </c>
+      <c r="I40">
+        <v>10</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>16</v>
+      </c>
+      <c r="O40">
+        <v>10</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>17</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>17</v>
+      </c>
+      <c r="I41">
+        <v>10</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>17</v>
+      </c>
+      <c r="O41">
+        <v>10</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>18</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>18</v>
+      </c>
+      <c r="I42">
+        <v>10</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>18</v>
+      </c>
+      <c r="O42">
+        <v>10</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>19</v>
+      </c>
+      <c r="C43">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>19</v>
+      </c>
+      <c r="I43">
+        <v>10</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>19</v>
+      </c>
+      <c r="O43">
+        <v>10</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>20</v>
+      </c>
+      <c r="C44">
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>20</v>
+      </c>
+      <c r="I44">
+        <v>10</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>20</v>
+      </c>
+      <c r="O44">
+        <v>10</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <f>SUM(C25:C44)</f>
+        <v>200</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45:F45" si="1">SUM(D25:D44)</f>
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G45" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45">
+        <f>SUM(I25:I44)</f>
+        <v>200</v>
+      </c>
+      <c r="J45">
+        <f t="shared" ref="J45" si="2">SUM(J25:J44)</f>
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <f t="shared" ref="K45:L45" si="3">SUM(K25:K44)</f>
+        <v>0</v>
+      </c>
+      <c r="M45" t="s">
+        <v>4</v>
+      </c>
+      <c r="O45">
+        <f>SUM(O25:O44)</f>
+        <v>198</v>
+      </c>
+      <c r="P45">
+        <f t="shared" ref="P45" si="4">SUM(P25:P44)</f>
+        <v>2</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" ref="Q45:R45" si="5">SUM(Q25:Q44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" t="s">
+        <v>1</v>
+      </c>
+      <c r="I47" t="s">
+        <v>0</v>
+      </c>
+      <c r="J47" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" t="s">
+        <v>12</v>
+      </c>
+      <c r="N47" t="s">
+        <v>1</v>
+      </c>
+      <c r="O47" t="s">
+        <v>0</v>
+      </c>
+      <c r="P47" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>10</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="M48" t="s">
+        <v>10</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49">
+        <v>10</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="I50">
+        <v>10</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="H51">
+        <v>4</v>
+      </c>
+      <c r="I51">
+        <v>10</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="H52">
+        <v>5</v>
+      </c>
+      <c r="I52">
+        <v>10</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>6</v>
+      </c>
+      <c r="H53">
+        <v>6</v>
+      </c>
+      <c r="I53">
+        <v>10</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>7</v>
+      </c>
+      <c r="H54">
+        <v>7</v>
+      </c>
+      <c r="I54">
+        <v>10</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>8</v>
+      </c>
+      <c r="H55">
+        <v>8</v>
+      </c>
+      <c r="I55">
+        <v>10</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>9</v>
+      </c>
+      <c r="H56">
+        <v>9</v>
+      </c>
+      <c r="I56">
+        <v>10</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>10</v>
+      </c>
+      <c r="H57">
+        <v>10</v>
+      </c>
+      <c r="I57">
+        <v>10</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>11</v>
+      </c>
+      <c r="H58">
+        <v>11</v>
+      </c>
+      <c r="I58">
+        <v>10</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>12</v>
+      </c>
+      <c r="H59">
+        <v>12</v>
+      </c>
+      <c r="I59">
+        <v>10</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>13</v>
+      </c>
+      <c r="H60">
+        <v>13</v>
+      </c>
+      <c r="I60">
+        <v>10</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>14</v>
+      </c>
+      <c r="H61">
+        <v>14</v>
+      </c>
+      <c r="I61">
+        <v>10</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>15</v>
+      </c>
+      <c r="H62">
+        <v>15</v>
+      </c>
+      <c r="I62">
+        <v>10</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>16</v>
+      </c>
+      <c r="H63">
+        <v>16</v>
+      </c>
+      <c r="I63">
+        <v>10</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>17</v>
+      </c>
+      <c r="H64">
+        <v>17</v>
+      </c>
+      <c r="I64">
+        <v>10</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>18</v>
+      </c>
+      <c r="H65">
+        <v>18</v>
+      </c>
+      <c r="I65">
+        <v>10</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>19</v>
+      </c>
+      <c r="H66">
+        <v>19</v>
+      </c>
+      <c r="I66">
+        <v>10</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>20</v>
+      </c>
+      <c r="H67">
+        <v>20</v>
+      </c>
+      <c r="I67">
+        <v>10</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68">
+        <f>SUM(C48:C67)</f>
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ref="D68" si="6">SUM(D48:D67)</f>
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ref="E68:F68" si="7">SUM(E48:E67)</f>
+        <v>0</v>
+      </c>
+      <c r="G68" t="s">
+        <v>4</v>
+      </c>
+      <c r="I68">
+        <f>SUM(I48:I67)</f>
+        <v>200</v>
+      </c>
+      <c r="J68">
+        <f t="shared" ref="J68" si="8">SUM(J48:J67)</f>
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <f t="shared" ref="K68:L68" si="9">SUM(K48:K67)</f>
+        <v>0</v>
+      </c>
+      <c r="M68" t="s">
+        <v>4</v>
+      </c>
+      <c r="O68">
+        <f>SUM(O48:O67)</f>
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <f t="shared" ref="P68" si="10">SUM(P48:P67)</f>
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" ref="Q68:R68" si="11">SUM(Q48:Q67)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>101</v>
+      </c>
+      <c r="C2">
+        <v>107</v>
+      </c>
+      <c r="D2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>32</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23">
+        <v>200</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24">
+        <v>200</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <v>198</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27">
+        <v>200</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Document/Testing.xlsx
+++ b/Document/Testing.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="7035" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="7035" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Test 1" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
+    <sheet name="figure 1" sheetId="3" r:id="rId3"/>
+    <sheet name="figure 2" sheetId="4" r:id="rId4"/>
+    <sheet name="figure 3" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="26">
   <si>
     <t>Success</t>
   </si>
@@ -98,6 +101,12 @@
   <si>
     <t>DIP 20 Holder</t>
   </si>
+  <si>
+    <t>With Vibration Motor</t>
+  </si>
+  <si>
+    <t>Without Vibration Motor</t>
+  </si>
 </sst>
 </file>
 
@@ -140,6 +149,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF25858"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -186,7 +200,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-ZA"/>
-              <a:t>Dipsencary Test Results</a:t>
+              <a:t>Dispensary Test Results</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-ZA" baseline="0"/>
@@ -369,7 +383,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:srgbClr val="F25858"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -483,11 +497,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1565395248"/>
-        <c:axId val="1975799424"/>
+        <c:axId val="137342368"/>
+        <c:axId val="137335840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1565395248"/>
+        <c:axId val="137342368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -530,7 +544,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1975799424"/>
+        <c:crossAx val="137335840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -538,7 +552,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1975799424"/>
+        <c:axId val="137335840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.70000000000000007"/>
@@ -590,7 +604,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1565395248"/>
+        <c:crossAx val="137342368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -818,7 +832,13 @@
                 <c:pt idx="2">
                   <c:v>198</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
                 <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -890,7 +910,13 @@
                 <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -962,7 +988,13 @@
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -979,11 +1011,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="73434752"/>
-        <c:axId val="73427680"/>
+        <c:axId val="137336928"/>
+        <c:axId val="137337472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="73434752"/>
+        <c:axId val="137336928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1026,7 +1058,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73427680"/>
+        <c:crossAx val="137337472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1034,7 +1066,504 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73427680"/>
+        <c:axId val="137337472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.95000000000000007"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="137336928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0000000000000002E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ZA"/>
+              <a:t>Results</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-ZA" baseline="0"/>
+              <a:t> of Comparison Test Between Dispensary With No Vibration Motor and Without Vibration Motor</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-ZA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Success</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$B$11:$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>With Vibration Motor</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Without Vibration Motor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$B$12:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Half Load Error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$B$11:$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>With Vibration Motor</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Without Vibration Motor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$B$13:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Full Load Error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$B$11:$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>With Vibration Motor</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Without Vibration Motor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$B$14:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Release Error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$B$11:$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>With Vibration Motor</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Without Vibration Motor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$B$15:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="176532496"/>
+        <c:axId val="176533584"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="176532496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="176533584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="176533584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.9"/>
@@ -1086,7 +1615,528 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73434752"/>
+        <c:crossAx val="176532496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0000000000000002E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ZA"/>
+              <a:t>Dispensary Test Results</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-ZA" baseline="0"/>
+              <a:t> of Prototypes</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-ZA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Success</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Vertical Roller V1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Vertical Roller V2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Horizontal Roller V1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Half Load Error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Vertical Roller V1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Vertical Roller V2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Horizontal Roller V1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Full Load Error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="F25858"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Vertical Roller V1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Vertical Roller V2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Horizontal Roller V1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$B$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Release Error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Vertical Roller V1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Vertical Roller V2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Horizontal Roller V1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$B$5:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="429807184"/>
+        <c:axId val="170400464"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="429807184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="170400464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="170400464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.70000000000000007"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="429807184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1162,7 +2212,1019 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ZA"/>
+              <a:t>Results</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-ZA" baseline="0"/>
+              <a:t> of Comparison Test Between Dispensary With No Vibration Motor and Without Vibration Motor</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-ZA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Success</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$B$11:$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>With Vibration Motor</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Without Vibration Motor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$B$12:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Half Load Error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$B$11:$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>With Vibration Motor</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Without Vibration Motor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$B$13:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Full Load Error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$B$11:$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>With Vibration Motor</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Without Vibration Motor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$B$14:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Release Error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$B$11:$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>With Vibration Motor</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Without Vibration Motor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$B$15:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="133218448"/>
+        <c:axId val="133230416"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="133218448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="133230416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="133230416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.9"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="133218448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0000000000000002E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ZA"/>
+              <a:t>Final</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-ZA" baseline="0"/>
+              <a:t> Build Stress Test Results</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-ZA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Success</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$A$23:$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>DIP 8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DIP 14/16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DIP 20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DIP 8 Holder</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DIP 14/16 Holder</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DIP 20 Holder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$B$23:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$C$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Load Error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$A$23:$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>DIP 8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DIP 14/16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DIP 20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DIP 8 Holder</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DIP 14/16 Holder</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DIP 20 Holder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$C$23:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$D$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Release Error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$A$23:$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>DIP 8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DIP 14/16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DIP 20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DIP 8 Holder</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DIP 14/16 Holder</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DIP 20 Holder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$D$23:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1893141808"/>
+        <c:axId val="1893145616"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1893141808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1893145616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1893145616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.95000000000000007"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1893141808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0000000000000002E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1247,6 +3309,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -2257,20 +4479,2040 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>357187</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>61911</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>414337</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>166686</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2291,16 +6533,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>385762</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>128586</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>690562</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>185736</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2314,6 +6556,147 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>147638</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>471488</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2588,7 +6971,7 @@
   <dimension ref="A3:R68"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="L65" sqref="L65"/>
+      <selection activeCell="T63" sqref="T63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3758,7 +8141,7 @@
         <v>200</v>
       </c>
       <c r="D45">
-        <f t="shared" ref="D45:F45" si="1">SUM(D25:D44)</f>
+        <f t="shared" ref="D45:E45" si="1">SUM(D25:D44)</f>
         <v>0</v>
       </c>
       <c r="E45">
@@ -3777,7 +8160,7 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <f t="shared" ref="K45:L45" si="3">SUM(K25:K44)</f>
+        <f t="shared" ref="K45" si="3">SUM(K25:K44)</f>
         <v>0</v>
       </c>
       <c r="M45" t="s">
@@ -3792,7 +8175,7 @@
         <v>2</v>
       </c>
       <c r="Q45">
-        <f t="shared" ref="Q45:R45" si="5">SUM(Q25:Q44)</f>
+        <f t="shared" ref="Q45" si="5">SUM(Q25:Q44)</f>
         <v>0</v>
       </c>
     </row>
@@ -3841,6 +8224,15 @@
       <c r="B48">
         <v>1</v>
       </c>
+      <c r="C48">
+        <v>10</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
       <c r="G48" t="s">
         <v>10</v>
       </c>
@@ -3862,11 +8254,29 @@
       <c r="N48">
         <v>1</v>
       </c>
+      <c r="O48">
+        <v>10</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>2</v>
       </c>
+      <c r="C49">
+        <v>10</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
       <c r="H49">
         <v>2</v>
       </c>
@@ -3882,11 +8292,29 @@
       <c r="N49">
         <v>2</v>
       </c>
+      <c r="O49">
+        <v>10</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>3</v>
       </c>
+      <c r="C50">
+        <v>10</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
       <c r="H50">
         <v>3</v>
       </c>
@@ -3902,11 +8330,29 @@
       <c r="N50">
         <v>3</v>
       </c>
+      <c r="O50">
+        <v>10</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>4</v>
       </c>
+      <c r="C51">
+        <v>10</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
       <c r="H51">
         <v>4</v>
       </c>
@@ -3922,11 +8368,29 @@
       <c r="N51">
         <v>4</v>
       </c>
+      <c r="O51">
+        <v>10</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>5</v>
       </c>
+      <c r="C52">
+        <v>10</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
       <c r="H52">
         <v>5</v>
       </c>
@@ -3942,11 +8406,29 @@
       <c r="N52">
         <v>5</v>
       </c>
+      <c r="O52">
+        <v>10</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>6</v>
       </c>
+      <c r="C53">
+        <v>10</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
       <c r="H53">
         <v>6</v>
       </c>
@@ -3962,11 +8444,29 @@
       <c r="N53">
         <v>6</v>
       </c>
+      <c r="O53">
+        <v>10</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>7</v>
       </c>
+      <c r="C54">
+        <v>10</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
       <c r="H54">
         <v>7</v>
       </c>
@@ -3982,11 +8482,29 @@
       <c r="N54">
         <v>7</v>
       </c>
+      <c r="O54">
+        <v>10</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>8</v>
       </c>
+      <c r="C55">
+        <v>10</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
       <c r="H55">
         <v>8</v>
       </c>
@@ -4002,11 +8520,29 @@
       <c r="N55">
         <v>8</v>
       </c>
+      <c r="O55">
+        <v>10</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>9</v>
       </c>
+      <c r="C56">
+        <v>10</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
       <c r="H56">
         <v>9</v>
       </c>
@@ -4022,11 +8558,29 @@
       <c r="N56">
         <v>9</v>
       </c>
+      <c r="O56">
+        <v>10</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>10</v>
       </c>
+      <c r="C57">
+        <v>10</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
       <c r="H57">
         <v>10</v>
       </c>
@@ -4042,11 +8596,29 @@
       <c r="N57">
         <v>10</v>
       </c>
+      <c r="O57">
+        <v>10</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>11</v>
       </c>
+      <c r="C58">
+        <v>10</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
       <c r="H58">
         <v>11</v>
       </c>
@@ -4062,11 +8634,29 @@
       <c r="N58">
         <v>11</v>
       </c>
+      <c r="O58">
+        <v>10</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>12</v>
       </c>
+      <c r="C59">
+        <v>10</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
       <c r="H59">
         <v>12</v>
       </c>
@@ -4082,11 +8672,29 @@
       <c r="N59">
         <v>12</v>
       </c>
+      <c r="O59">
+        <v>10</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>13</v>
       </c>
+      <c r="C60">
+        <v>10</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
       <c r="H60">
         <v>13</v>
       </c>
@@ -4102,11 +8710,29 @@
       <c r="N60">
         <v>13</v>
       </c>
+      <c r="O60">
+        <v>10</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>14</v>
       </c>
+      <c r="C61">
+        <v>10</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
       <c r="H61">
         <v>14</v>
       </c>
@@ -4122,11 +8748,29 @@
       <c r="N61">
         <v>14</v>
       </c>
+      <c r="O61">
+        <v>10</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>15</v>
       </c>
+      <c r="C62">
+        <v>10</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
       <c r="H62">
         <v>15</v>
       </c>
@@ -4142,11 +8786,29 @@
       <c r="N62">
         <v>15</v>
       </c>
+      <c r="O62">
+        <v>10</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>16</v>
       </c>
+      <c r="C63">
+        <v>10</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
       <c r="H63">
         <v>16</v>
       </c>
@@ -4162,11 +8824,29 @@
       <c r="N63">
         <v>16</v>
       </c>
+      <c r="O63">
+        <v>10</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>17</v>
       </c>
+      <c r="C64">
+        <v>10</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
       <c r="H64">
         <v>17</v>
       </c>
@@ -4181,12 +8861,30 @@
       </c>
       <c r="N64">
         <v>17</v>
+      </c>
+      <c r="O64">
+        <v>10</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>18</v>
       </c>
+      <c r="C65">
+        <v>10</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
       <c r="H65">
         <v>18</v>
       </c>
@@ -4201,12 +8899,30 @@
       </c>
       <c r="N65">
         <v>18</v>
+      </c>
+      <c r="O65">
+        <v>10</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>19</v>
       </c>
+      <c r="C66">
+        <v>10</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
       <c r="H66">
         <v>19</v>
       </c>
@@ -4221,12 +8937,30 @@
       </c>
       <c r="N66">
         <v>19</v>
+      </c>
+      <c r="O66">
+        <v>10</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>20</v>
       </c>
+      <c r="C67">
+        <v>10</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
       <c r="H67">
         <v>20</v>
       </c>
@@ -4241,6 +8975,15 @@
       </c>
       <c r="N67">
         <v>20</v>
+      </c>
+      <c r="O67">
+        <v>10</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
@@ -4249,14 +8992,14 @@
       </c>
       <c r="C68">
         <f>SUM(C48:C67)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D68">
         <f t="shared" ref="D68" si="6">SUM(D48:D67)</f>
         <v>0</v>
       </c>
       <c r="E68">
-        <f t="shared" ref="E68:F68" si="7">SUM(E48:E67)</f>
+        <f t="shared" ref="E68" si="7">SUM(E48:E67)</f>
         <v>0</v>
       </c>
       <c r="G68" t="s">
@@ -4271,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="K68">
-        <f t="shared" ref="K68:L68" si="9">SUM(K48:K67)</f>
+        <f t="shared" ref="K68" si="9">SUM(K48:K67)</f>
         <v>0</v>
       </c>
       <c r="M68" t="s">
@@ -4279,14 +9022,14 @@
       </c>
       <c r="O68">
         <f>SUM(O48:O67)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P68">
         <f t="shared" ref="P68" si="10">SUM(P48:P67)</f>
         <v>0</v>
       </c>
       <c r="Q68">
-        <f t="shared" ref="Q68:R68" si="11">SUM(Q48:Q67)</f>
+        <f t="shared" ref="Q68" si="11">SUM(Q48:Q67)</f>
         <v>0</v>
       </c>
     </row>
@@ -4299,14 +9042,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -4378,6 +9122,60 @@
         <v>2</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <f>21*5</f>
+        <v>105</v>
+      </c>
+      <c r="C12">
+        <f>20*5</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>0</v>
@@ -4435,6 +9233,15 @@
       <c r="A26" t="s">
         <v>21</v>
       </c>
+      <c r="B26">
+        <v>200</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -4453,10 +9260,65 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>23</v>
+      </c>
+      <c r="B28">
+        <v>200</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>